--- a/docs/timings.xlsx
+++ b/docs/timings.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajp\comp5704-parallel-algorithms\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B08DFE0-8F2E-4062-AC73-941382CEF85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD255BD-2816-4982-BBCF-D0A8AF427E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7875" xr2:uid="{266A5364-E5A4-45E8-8068-F783105953C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{266A5364-E5A4-45E8-8068-F783105953C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -122,6 +123,2855 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>0.23239299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4384499999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6475300000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.18791</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9352799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8147800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7471399999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.54233</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3637300000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0752999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93877100000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.22288</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.873691</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0795399999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89591699999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.12412</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.15971</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3874</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1908399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2405299999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2422</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2090399999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3282700000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2078100000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.40385</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4074599999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1937800000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2320599999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.10155</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.16116</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.99258800000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.08826</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.89940200000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.94247499999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.88322599999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.899142</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.97872899999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.85700799999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.96808000000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.85926999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.98252300000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.87479099999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.85570500000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.0211699999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.89634100000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.96851900000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.88076500000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.97342899999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.78505199999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.79161099999999995</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.93362599999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.750058</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.95630599999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.75459699999999996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.73384700000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.88585599999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.72461900000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.74992899999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.88929499999999995</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.78166999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D2F6-43E7-BF36-6902FFFCDDF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>0.158582</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.214699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27380199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.262017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.252639</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.250581</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.244725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24862000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.245145</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.260544</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26670500000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.277864</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27698800000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25359300000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25800200000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.270978</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27744200000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27666800000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.28832200000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.28490500000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.28714099999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.28755799999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.27185300000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.263262</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24196000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.22828399999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.22946900000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.213144</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.21434900000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.22195699999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.22135299999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.21268400000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.21179000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.21024599999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.209512</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.218004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.22440599999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.20899300000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.20655499999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.20996999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.21351200000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.211864</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.200521</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.20203599999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.19680300000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.205457</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.18881700000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.19306699999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.193492</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.190832</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.192241</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.19270799999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.191278</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.192054</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.18993599999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.189245</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.19092200000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.18815299999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.18970400000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.19029499999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.191327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D2F6-43E7-BF36-6902FFFCDDF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="340116351"/>
+        <c:axId val="340117183"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="340116351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Frame</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340117183"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="340117183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340116351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$A$181</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="181"/>
+                <c:pt idx="0">
+                  <c:v>0.18209</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23735700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22919100000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21138899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24571699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30956099999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.285746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32229999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41346100000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35224</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41316999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48422500000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57820099999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.74122200000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.78579600000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1289100000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2345900000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.38015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2268399999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3268800000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2614300000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7010099999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7184999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.77858</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.68441</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.50973</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7885800000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.34571</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9617100000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.74834</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.2189000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.92709</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.9024000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.3680500000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.9508000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.9141999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.75207</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.88314</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.88635</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.91072</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0247899999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.1351100000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.41072</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.0787200000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.02172</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.91518100000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.93085200000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.90163199999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.91378099999999995</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.91445500000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.90791200000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.93074599999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.90399499999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.87560499999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.92735999999999996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.85889300000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.88025699999999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.87766299999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.85269399999999995</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.82893300000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.81106400000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.82094800000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.75670099999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.77553899999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.75799000000000005</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.75945300000000004</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.747444</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.76434500000000005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.74994300000000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.75684200000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.75861699999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.74129599999999995</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.76683800000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.76632599999999995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.78950600000000004</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.795736</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.81534499999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.82254099999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78712700000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.78267500000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.78095999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.76191600000000004</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.75317000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.75057799999999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.73263599999999995</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.71428700000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.67269699999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.650115</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.65025999999999995</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.623089</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.601406</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.59846100000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.59194199999999997</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.61061100000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.58826400000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.58100700000000005</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.58934600000000004</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.599352</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.588036</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.58547899999999997</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.59544799999999998</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.61637299999999995</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.59362000000000004</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.62795100000000004</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.615618</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.64579900000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.65823399999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.62378699999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.63305800000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.63064200000000004</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.63179099999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.62726499999999996</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.61111800000000005</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.61545399999999995</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.589314</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.60446699999999998</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.597715</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.59539799999999998</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.58839900000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.62302299999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.57444200000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.57099</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.59305600000000003</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.57174199999999997</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.56116100000000002</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.58655100000000004</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.56714100000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.56342300000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.56308199999999997</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.57812799999999998</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.56046399999999996</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.58020000000000005</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.56222899999999998</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.55999399999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.561199</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.58641200000000004</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.56390099999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.597638</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.55140100000000003</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.56803400000000004</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.61299300000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.58423099999999994</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.59123899999999996</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.57967299999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.58629900000000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.56230500000000005</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.55601100000000003</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.58118300000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.57603899999999997</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.58092299999999997</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.57957999999999998</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.568747</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.57352700000000001</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.58107600000000004</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.58581099999999997</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.56777900000000003</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.56750699999999998</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.56578499999999998</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.56377299999999997</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.57491400000000004</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.58452400000000004</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.57034099999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.56472100000000003</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.55400099999999997</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.56340299999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.53833799999999998</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.56737499999999996</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.55787399999999998</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.53237800000000002</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.54903400000000002</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.54744899999999996</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.54953600000000002</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.56105000000000005</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.55755500000000002</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.54883000000000004</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.54848300000000005</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.54330299999999998</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.54692600000000002</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.57489400000000002</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.57812399999999997</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.56117600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BAB1-4029-A328-6592CBA60C07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="337210623"/>
+        <c:axId val="345117311"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="337210623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Frame</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="345117311"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="345117311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="337210623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D86D4E-7E7E-4718-DF84-DA474C300EAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A9FC75F-36DC-7934-7E6B-468ED67790FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,7 +3273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D951ED-292B-420D-8C4D-6CB8C56C8B6E}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -1674,5 +4524,927 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7073AA0-5EAF-48AB-8F14-3608E1BBEF6B}">
+  <dimension ref="A1:A181"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:A181"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0.18209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.23735700000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.22919100000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.21138899999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.24571699999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.30956099999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.285746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.32229999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.41346100000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.35224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.41316999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.48422500000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.57820099999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.74122200000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.78579600000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1.1289100000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1.2345900000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1.38015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1.2268399999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1.3268800000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1.2614300000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1.7010099999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1.7184999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1.77858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1.68441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1.50973</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1.7885800000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1.34571</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1.9617100000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1.74834</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2.2189000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1.92709</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1.9024000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2.3680500000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1.9508000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1.9141999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1.75207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.88314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1.88635</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1.91072</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2.0247899999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2.1351100000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2.41072</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2.0787200000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1.02172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.91518100000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.93085200000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.90163199999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.91378099999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0.91445500000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.90791200000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.93074599999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.90399499999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.87560499999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.92735999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.85889300000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.88025699999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.87766299999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.85269399999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.82893300000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.81106400000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.82094800000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.75670099999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.77553899999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.75799000000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.75945300000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.747444</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.76434500000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.74994300000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.75684200000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.75861699999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0.74129599999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.76683800000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0.76632599999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.78950600000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0.795736</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.81534499999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.82254099999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.78712700000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.78267500000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.78095999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.76191600000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.75317000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.75057799999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.73263599999999995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.71428700000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0.67269699999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0.650115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0.65025999999999995</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0.623089</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.601406</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.59846100000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0.59194199999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0.61061100000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.58826400000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0.58100700000000005</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0.58934600000000004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0.599352</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0.588036</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0.58547899999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>0.59544799999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>0.61637299999999995</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>0.59362000000000004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>0.62795100000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>0.615618</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>0.64579900000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>0.65823399999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>0.62378699999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>0.63305800000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>0.63064200000000004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>0.63179099999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>0.62726499999999996</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>0.61111800000000005</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>0.61545399999999995</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>0.589314</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>0.60446699999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>0.597715</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>0.59539799999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>0.58839900000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>0.62302299999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>0.57444200000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>0.57099</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>0.59305600000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>0.57174199999999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>0.56116100000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>0.58655100000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>0.56714100000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>0.56342300000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>0.56308199999999997</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>0.57812799999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>0.56046399999999996</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>0.58020000000000005</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>0.56222899999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>0.55999399999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>0.561199</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>0.58641200000000004</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>0.56390099999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>0.597638</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>0.55140100000000003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>0.56803400000000004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>0.61299300000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>0.58423099999999994</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>0.59123899999999996</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>0.57967299999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>0.58629900000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>0.56230500000000005</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>0.55601100000000003</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>0.58118300000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>0.57603899999999997</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>0.58092299999999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>0.57957999999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>0.568747</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>0.57352700000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>0.58107600000000004</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>0.58581099999999997</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>0.56777900000000003</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>0.56750699999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>0.56578499999999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>0.56377299999999997</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>0.57491400000000004</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>0.58452400000000004</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>0.57034099999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>0.56472100000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>0.55400099999999997</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>0.56340299999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>0.53833799999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>0.56737499999999996</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>0.55787399999999998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>0.53237800000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>0.54903400000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>0.54744899999999996</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>0.54953600000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>0.56105000000000005</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>0.55755500000000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>0.54883000000000004</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>0.54848300000000005</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>0.54330299999999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>0.54692600000000002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>0.57489400000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>0.57812399999999997</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>0.56117600000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>